--- a/public/downloads/lesson-5-solutions.xlsx
+++ b/public/downloads/lesson-5-solutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Drives\Hustles\SpeakHindiFast\public\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C201BAD-DAE9-4980-ABD9-AD7294431C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B426EE-0EDE-4E7C-B1F5-D8918BDB5227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,25 +222,25 @@
     <t>Khati</t>
   </si>
   <si>
-    <t>Paddi</t>
-  </si>
-  <si>
-    <t>Likti</t>
-  </si>
-  <si>
-    <t>Dhaei</t>
-  </si>
-  <si>
-    <t>Bitei</t>
-  </si>
-  <si>
-    <t>Uttti</t>
-  </si>
-  <si>
     <t>Sothi</t>
   </si>
   <si>
-    <t>Bholi</t>
+    <t>Paddthi</t>
+  </si>
+  <si>
+    <t>Likthi</t>
+  </si>
+  <si>
+    <t>Dhaekthi</t>
+  </si>
+  <si>
+    <t>Bitethi</t>
+  </si>
+  <si>
+    <t>Uttthi</t>
+  </si>
+  <si>
+    <t>Bholthi</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -675,7 +675,7 @@
         <v>57</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -695,7 +695,7 @@
         <v>58</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -715,7 +715,7 @@
         <v>59</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -735,7 +735,7 @@
         <v>60</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -755,7 +755,7 @@
         <v>61</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -775,7 +775,7 @@
         <v>62</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
